--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H2">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I2">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J2">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N2">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O2">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P2">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q2">
-        <v>19268.53387955103</v>
+        <v>18216.68695252749</v>
       </c>
       <c r="R2">
-        <v>173416.8049159592</v>
+        <v>163950.1825727474</v>
       </c>
       <c r="S2">
-        <v>0.5830954011402683</v>
+        <v>0.6100671647806876</v>
       </c>
       <c r="T2">
-        <v>0.5830954011402681</v>
+        <v>0.6100671647806876</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H3">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I3">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J3">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>31.14098</v>
       </c>
       <c r="O3">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P3">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q3">
-        <v>3862.608207576617</v>
+        <v>4377.412391194497</v>
       </c>
       <c r="R3">
-        <v>34763.47386818956</v>
+        <v>39396.71152075048</v>
       </c>
       <c r="S3">
-        <v>0.1168884512087777</v>
+        <v>0.1465972146050055</v>
       </c>
       <c r="T3">
-        <v>0.1168884512087777</v>
+        <v>0.1465972146050055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H4">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I4">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J4">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N4">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O4">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P4">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q4">
-        <v>194.7255156564886</v>
+        <v>177.9960957028546</v>
       </c>
       <c r="R4">
-        <v>1752.529640908398</v>
+        <v>1601.964861325692</v>
       </c>
       <c r="S4">
-        <v>0.005892692893695733</v>
+        <v>0.005960994649052039</v>
       </c>
       <c r="T4">
-        <v>0.005892692893695733</v>
+        <v>0.00596099464905204</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H5">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I5">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J5">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N5">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O5">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P5">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q5">
-        <v>2118.243496303708</v>
+        <v>1742.908606408644</v>
       </c>
       <c r="R5">
-        <v>19064.19146673337</v>
+        <v>15686.1774576778</v>
       </c>
       <c r="S5">
-        <v>0.06410129846468392</v>
+        <v>0.058369082959734</v>
       </c>
       <c r="T5">
-        <v>0.06410129846468392</v>
+        <v>0.05836908295973401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H6">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I6">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J6">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N6">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O6">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P6">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q6">
-        <v>1306.836264216357</v>
+        <v>60.50057024521688</v>
       </c>
       <c r="R6">
-        <v>11761.52637794722</v>
+        <v>544.505132206952</v>
       </c>
       <c r="S6">
-        <v>0.0395468705855498</v>
+        <v>0.002026131944480347</v>
       </c>
       <c r="T6">
-        <v>0.03954687058554979</v>
+        <v>0.002026131944480347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>209.114842</v>
       </c>
       <c r="I7">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J7">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N7">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O7">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P7">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q7">
-        <v>3609.463348673333</v>
+        <v>3011.109551733933</v>
       </c>
       <c r="R7">
-        <v>32485.17013806</v>
+        <v>27099.98596560539</v>
       </c>
       <c r="S7">
-        <v>0.1092278993488638</v>
+        <v>0.1008404586332036</v>
       </c>
       <c r="T7">
-        <v>0.1092278993488638</v>
+        <v>0.1008404586332036</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>209.114842</v>
       </c>
       <c r="I8">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J8">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>31.14098</v>
       </c>
       <c r="O8">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P8">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q8">
         <v>723.5601236027956</v>
@@ -948,10 +948,10 @@
         <v>6512.04111242516</v>
       </c>
       <c r="S8">
-        <v>0.02189603958239011</v>
+        <v>0.02423164400338318</v>
       </c>
       <c r="T8">
-        <v>0.02189603958239011</v>
+        <v>0.02423164400338318</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>209.114842</v>
       </c>
       <c r="I9">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J9">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N9">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O9">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P9">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q9">
-        <v>36.47680805437533</v>
+        <v>29.42169151497933</v>
       </c>
       <c r="R9">
-        <v>328.291272489378</v>
+        <v>264.795223634814</v>
       </c>
       <c r="S9">
-        <v>0.001103844182320225</v>
+        <v>0.0009853168126768013</v>
       </c>
       <c r="T9">
-        <v>0.001103844182320225</v>
+        <v>0.0009853168126768013</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>209.114842</v>
       </c>
       <c r="I10">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J10">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N10">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O10">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P10">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q10">
-        <v>396.798340302788</v>
+        <v>288.0923828922797</v>
       </c>
       <c r="R10">
-        <v>3571.185062725092</v>
+        <v>2592.831446030518</v>
       </c>
       <c r="S10">
-        <v>0.01200772663125099</v>
+        <v>0.009648060796346945</v>
       </c>
       <c r="T10">
-        <v>0.01200772663125099</v>
+        <v>0.009648060796346947</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>209.114842</v>
       </c>
       <c r="I11">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J11">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N11">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O11">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P11">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q11">
-        <v>244.8021021159307</v>
+        <v>10.00038291405378</v>
       </c>
       <c r="R11">
-        <v>2203.218919043376</v>
+        <v>90.003446226484</v>
       </c>
       <c r="S11">
-        <v>0.007408087238269709</v>
+        <v>0.0003349075090875152</v>
       </c>
       <c r="T11">
-        <v>0.007408087238269708</v>
+        <v>0.0003349075090875152</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H12">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I12">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J12">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N12">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O12">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P12">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q12">
-        <v>20.05807820501867</v>
+        <v>47.00624692308944</v>
       </c>
       <c r="R12">
-        <v>180.522703845168</v>
+        <v>423.056222307805</v>
       </c>
       <c r="S12">
-        <v>0.000606988223918298</v>
+        <v>0.001574214227981301</v>
       </c>
       <c r="T12">
-        <v>0.0006069882239182979</v>
+        <v>0.001574214227981301</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H13">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I13">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J13">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>31.14098</v>
       </c>
       <c r="O13">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P13">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q13">
-        <v>4.020881816293334</v>
+        <v>11.29545280549111</v>
       </c>
       <c r="R13">
-        <v>36.18793634664</v>
+        <v>101.65907524942</v>
       </c>
       <c r="S13">
-        <v>0.0001216780534660897</v>
+        <v>0.000378278711486774</v>
       </c>
       <c r="T13">
-        <v>0.0001216780534660897</v>
+        <v>0.000378278711486774</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H14">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I14">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J14">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N14">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O14">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P14">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q14">
-        <v>0.202704556868</v>
+        <v>0.4593002255436666</v>
       </c>
       <c r="R14">
-        <v>1.824341011812</v>
+        <v>4.133702029893001</v>
       </c>
       <c r="S14">
-        <v>6.134150923923892E-06</v>
+        <v>1.538172045832285E-05</v>
       </c>
       <c r="T14">
-        <v>6.134150923923891E-06</v>
+        <v>1.538172045832286E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H15">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I15">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J15">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N15">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O15">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P15">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q15">
-        <v>2.205040298951999</v>
+        <v>4.497392557204555</v>
       </c>
       <c r="R15">
-        <v>19.845362690568</v>
+        <v>40.476533014841</v>
       </c>
       <c r="S15">
-        <v>6.672790289521664E-05</v>
+        <v>0.0001506152866012154</v>
       </c>
       <c r="T15">
-        <v>6.672790289521664E-05</v>
+        <v>0.0001506152866012154</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H16">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I16">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J16">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N16">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O16">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P16">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q16">
-        <v>1.360384975456</v>
+        <v>0.1561153656175555</v>
       </c>
       <c r="R16">
-        <v>12.243464779104</v>
+        <v>1.405038290558</v>
       </c>
       <c r="S16">
-        <v>4.116733675365618E-05</v>
+        <v>5.228220627010791E-06</v>
       </c>
       <c r="T16">
-        <v>4.116733675365616E-05</v>
+        <v>5.228220627010791E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H17">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I17">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J17">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N17">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O17">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P17">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q17">
-        <v>882.2161479301622</v>
+        <v>839.6374922387828</v>
       </c>
       <c r="R17">
-        <v>7939.94533137146</v>
+        <v>7556.737430149045</v>
       </c>
       <c r="S17">
-        <v>0.02669721432286505</v>
+        <v>0.02811901338967733</v>
       </c>
       <c r="T17">
-        <v>0.02669721432286504</v>
+        <v>0.02811901338967733</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H18">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I18">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J18">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>31.14098</v>
       </c>
       <c r="O18">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P18">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q18">
-        <v>176.8507845564777</v>
+        <v>201.7622398746645</v>
       </c>
       <c r="R18">
-        <v>1591.6570610083</v>
+        <v>1815.86015887198</v>
       </c>
       <c r="S18">
-        <v>0.005351776103337518</v>
+        <v>0.006756910186847093</v>
       </c>
       <c r="T18">
-        <v>0.005351776103337518</v>
+        <v>0.006756910186847093</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H19">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I19">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J19">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N19">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O19">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P19">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q19">
-        <v>8.915571646501665</v>
+        <v>8.204136998879667</v>
       </c>
       <c r="R19">
-        <v>80.24014481851499</v>
+        <v>73.83723298991701</v>
       </c>
       <c r="S19">
-        <v>0.000269798878218171</v>
+        <v>0.0002747521880033419</v>
       </c>
       <c r="T19">
-        <v>0.000269798878218171</v>
+        <v>0.0002747521880033419</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H20">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I20">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J20">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N20">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O20">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P20">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q20">
-        <v>96.98447372118999</v>
+        <v>80.33356533490321</v>
       </c>
       <c r="R20">
-        <v>872.8602634907098</v>
+        <v>723.002088014129</v>
       </c>
       <c r="S20">
-        <v>0.002934898989323248</v>
+        <v>0.00269032840978742</v>
       </c>
       <c r="T20">
-        <v>0.002934898989323248</v>
+        <v>0.002690328409787421</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H21">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I21">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J21">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N21">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O21">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P21">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q21">
-        <v>59.83392728265333</v>
+        <v>2.788572214700222</v>
       </c>
       <c r="R21">
-        <v>538.50534554388</v>
+        <v>25.097149932302</v>
       </c>
       <c r="S21">
-        <v>0.001810666449703402</v>
+        <v>9.338780148342675E-05</v>
       </c>
       <c r="T21">
-        <v>0.001810666449703402</v>
+        <v>9.338780148342675E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H22">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I22">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J22">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>51.78202533333334</v>
+        <v>43.19793166666667</v>
       </c>
       <c r="N22">
-        <v>155.346076</v>
+        <v>129.593795</v>
       </c>
       <c r="O22">
-        <v>0.7202935140152373</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="P22">
-        <v>0.7202935140152372</v>
+        <v>0.7412538312889448</v>
       </c>
       <c r="Q22">
-        <v>22.008499971224</v>
+        <v>19.49807762465667</v>
       </c>
       <c r="R22">
-        <v>198.076499741016</v>
+        <v>175.48269862191</v>
       </c>
       <c r="S22">
-        <v>0.0006660109793218716</v>
+        <v>0.0006529802573951382</v>
       </c>
       <c r="T22">
-        <v>0.0006660109793218715</v>
+        <v>0.0006529802573951382</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H23">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I23">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J23">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>31.14098</v>
       </c>
       <c r="O23">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="P23">
-        <v>0.1443914548190984</v>
+        <v>0.1781209566020688</v>
       </c>
       <c r="Q23">
-        <v>4.411867200520001</v>
+        <v>4.685326526226667</v>
       </c>
       <c r="R23">
-        <v>39.70680480468</v>
+        <v>42.16793873604</v>
       </c>
       <c r="S23">
-        <v>0.000133509871126985</v>
+        <v>0.000156909095346246</v>
       </c>
       <c r="T23">
-        <v>0.000133509871126985</v>
+        <v>0.000156909095346246</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H24">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I24">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J24">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.523303</v>
+        <v>0.422089</v>
       </c>
       <c r="N24">
-        <v>1.569909</v>
+        <v>1.266267</v>
       </c>
       <c r="O24">
-        <v>0.007279200733040383</v>
+        <v>0.007242825670663926</v>
       </c>
       <c r="P24">
-        <v>0.007279200733040382</v>
+        <v>0.007242825670663927</v>
       </c>
       <c r="Q24">
-        <v>0.222415287666</v>
+        <v>0.190516623574</v>
       </c>
       <c r="R24">
-        <v>2.001737588994</v>
+        <v>1.714649612166</v>
       </c>
       <c r="S24">
-        <v>6.730627882330417E-06</v>
+        <v>6.380300473421351E-06</v>
       </c>
       <c r="T24">
-        <v>6.730627882330416E-06</v>
+        <v>6.380300473421352E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H25">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I25">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J25">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.692542</v>
+        <v>4.133026333333333</v>
       </c>
       <c r="N25">
-        <v>17.077626</v>
+        <v>12.399079</v>
       </c>
       <c r="O25">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936286</v>
       </c>
       <c r="P25">
-        <v>0.07918386842663459</v>
+        <v>0.07092056230936288</v>
       </c>
       <c r="Q25">
-        <v>2.419455585924</v>
+        <v>1.865507563971333</v>
       </c>
       <c r="R25">
-        <v>21.775100273316</v>
+        <v>16.789568075742</v>
       </c>
       <c r="S25">
-        <v>7.321643848121824E-05</v>
+        <v>6.247485689328452E-05</v>
       </c>
       <c r="T25">
-        <v>7.321643848121824E-05</v>
+        <v>6.247485689328453E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H26">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I26">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J26">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.511976</v>
+        <v>0.1434673333333333</v>
       </c>
       <c r="N26">
-        <v>10.535928</v>
+        <v>0.430402</v>
       </c>
       <c r="O26">
-        <v>0.04885196200598933</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="P26">
-        <v>0.04885196200598932</v>
+        <v>0.002461824128959449</v>
       </c>
       <c r="Q26">
-        <v>1.492667063472</v>
+        <v>0.06475627637733333</v>
       </c>
       <c r="R26">
-        <v>13.434003571248</v>
+        <v>0.5828064873960001</v>
       </c>
       <c r="S26">
-        <v>4.517039571276154E-05</v>
+        <v>2.168653281149628E-06</v>
       </c>
       <c r="T26">
-        <v>4.517039571276153E-05</v>
+        <v>2.168653281149628E-06</v>
       </c>
     </row>
   </sheetData>
